--- a/medicine/Psychotrope/Brasserie_Cosse/Brasserie_Cosse.xlsx
+++ b/medicine/Psychotrope/Brasserie_Cosse/Brasserie_Cosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Cosse est une microbrasserie belge située à Grâce-Hollogne dans la province de Liège.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie a été fondée en 2009 par Pierre Frippiat. Il est un descendant de R. Cosse, le dernier propriétaire de la brasserie Questiaux à Winenne (fermée en 1932)[1], d'où le nom de la brasserie. La brasserie composée de matériel d'occasion est construite dans un ancien garage. La seule bière de la brasserie est La Belle Ardente qui au surnom de Liège, la cité ardente.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie a été fondée en 2009 par Pierre Frippiat. Il est un descendant de R. Cosse, le dernier propriétaire de la brasserie Questiaux à Winenne (fermée en 1932), d'où le nom de la brasserie. La brasserie composée de matériel d'occasion est construite dans un ancien garage. La seule bière de la brasserie est La Belle Ardente qui au surnom de Liège, la cité ardente.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Bière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Belle Ardente, une bière blonde dorée, non filtrée et refermentée en bouteille titrant 7,5 % en volume d'alcool.</t>
         </is>
